--- a/收費單.xlsx
+++ b/收費單.xlsx
@@ -13,6 +13,14 @@
     <sheet name="劉大象" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="陳中一" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="孫二" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="呂彥臻1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="王大同1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="楊小明1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="劉大象1" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="陳中一1" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="孫二1" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="呂彥臻2" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="王大同2" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -605,6 +613,786 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="31" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>四年愛班  劉大象1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>項目/月份</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>九月</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>十月</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>十一月</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>十二月</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>一月</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>費用</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr"/>
+      <c r="C3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr"/>
+    </row>
+    <row r="4" ht="20" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>點心</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr"/>
+      <c r="C4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr"/>
+    </row>
+    <row r="5" ht="20" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>教材/冷氣</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr"/>
+      <c r="C5" s="2" t="inlineStr"/>
+      <c r="D5" s="2" t="inlineStr"/>
+      <c r="E5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr"/>
+    </row>
+    <row r="6" ht="20" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>共計</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr"/>
+      <c r="C6" s="2" t="inlineStr"/>
+      <c r="D6" s="2" t="inlineStr"/>
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr"/>
+    </row>
+    <row r="7" ht="20" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>收款人</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr"/>
+      <c r="C7" s="2" t="inlineStr"/>
+      <c r="D7" s="2" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>請於拿到收費袋一週內繳費，以便學校行政事務</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="31" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>五年信班  陳中一1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>項目/月份</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>九月</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>十月</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>十一月</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>十二月</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>一月</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>費用</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr"/>
+      <c r="C3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr"/>
+    </row>
+    <row r="4" ht="20" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>點心</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr"/>
+      <c r="C4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr"/>
+    </row>
+    <row r="5" ht="20" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>教材/冷氣</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr"/>
+      <c r="C5" s="2" t="inlineStr"/>
+      <c r="D5" s="2" t="inlineStr"/>
+      <c r="E5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr"/>
+    </row>
+    <row r="6" ht="20" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>共計</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr"/>
+      <c r="C6" s="2" t="inlineStr"/>
+      <c r="D6" s="2" t="inlineStr"/>
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr"/>
+    </row>
+    <row r="7" ht="20" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>收款人</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr"/>
+      <c r="C7" s="2" t="inlineStr"/>
+      <c r="D7" s="2" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>請於拿到收費袋一週內繳費，以便學校行政事務</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="31" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>六年義班  孫二1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>項目/月份</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>九月</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>十月</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>十一月</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>十二月</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>一月</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>費用</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr"/>
+      <c r="C3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr"/>
+    </row>
+    <row r="4" ht="20" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>點心</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr"/>
+      <c r="C4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr"/>
+    </row>
+    <row r="5" ht="20" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>教材/冷氣</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr"/>
+      <c r="C5" s="2" t="inlineStr"/>
+      <c r="D5" s="2" t="inlineStr"/>
+      <c r="E5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr"/>
+    </row>
+    <row r="6" ht="20" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>共計</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr"/>
+      <c r="C6" s="2" t="inlineStr"/>
+      <c r="D6" s="2" t="inlineStr"/>
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr"/>
+    </row>
+    <row r="7" ht="20" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>收款人</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr"/>
+      <c r="C7" s="2" t="inlineStr"/>
+      <c r="D7" s="2" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>請於拿到收費袋一週內繳費，以便學校行政事務</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="31" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>一年忠班  呂彥臻2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>項目/月份</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>九月</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>十月</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>十一月</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>十二月</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>一月</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>費用</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr"/>
+      <c r="C3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr"/>
+    </row>
+    <row r="4" ht="20" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>點心</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr"/>
+      <c r="C4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr"/>
+    </row>
+    <row r="5" ht="20" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>教材/冷氣</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr"/>
+      <c r="C5" s="2" t="inlineStr"/>
+      <c r="D5" s="2" t="inlineStr"/>
+      <c r="E5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr"/>
+    </row>
+    <row r="6" ht="20" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>共計</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr"/>
+      <c r="C6" s="2" t="inlineStr"/>
+      <c r="D6" s="2" t="inlineStr"/>
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr"/>
+    </row>
+    <row r="7" ht="20" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>收款人</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr"/>
+      <c r="C7" s="2" t="inlineStr"/>
+      <c r="D7" s="2" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>請於拿到收費袋一週內繳費，以便學校行政事務</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="31" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>二年孝班  王大同2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>項目/月份</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>九月</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>十月</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>十一月</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>十二月</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>一月</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>費用</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr"/>
+      <c r="C3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr"/>
+    </row>
+    <row r="4" ht="20" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>點心</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr"/>
+      <c r="C4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr"/>
+    </row>
+    <row r="5" ht="20" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>教材/冷氣</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr"/>
+      <c r="C5" s="2" t="inlineStr"/>
+      <c r="D5" s="2" t="inlineStr"/>
+      <c r="E5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr"/>
+    </row>
+    <row r="6" ht="20" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>共計</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr"/>
+      <c r="C6" s="2" t="inlineStr"/>
+      <c r="D6" s="2" t="inlineStr"/>
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr"/>
+    </row>
+    <row r="7" ht="20" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>收款人</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr"/>
+      <c r="C7" s="2" t="inlineStr"/>
+      <c r="D7" s="2" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>請於拿到收費袋一週內繳費，以便學校行政事務</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1383,4 +2171,472 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="31" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>一年忠班  呂彥臻1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>項目/月份</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>九月</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>十月</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>十一月</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>十二月</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>一月</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>費用</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr"/>
+      <c r="C3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr"/>
+    </row>
+    <row r="4" ht="20" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>點心</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr"/>
+      <c r="C4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr"/>
+    </row>
+    <row r="5" ht="20" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>教材/冷氣</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr"/>
+      <c r="C5" s="2" t="inlineStr"/>
+      <c r="D5" s="2" t="inlineStr"/>
+      <c r="E5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr"/>
+    </row>
+    <row r="6" ht="20" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>共計</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr"/>
+      <c r="C6" s="2" t="inlineStr"/>
+      <c r="D6" s="2" t="inlineStr"/>
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr"/>
+    </row>
+    <row r="7" ht="20" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>收款人</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr"/>
+      <c r="C7" s="2" t="inlineStr"/>
+      <c r="D7" s="2" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>請於拿到收費袋一週內繳費，以便學校行政事務</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="31" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>二年孝班  王大同1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>項目/月份</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>九月</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>十月</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>十一月</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>十二月</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>一月</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>費用</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr"/>
+      <c r="C3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr"/>
+    </row>
+    <row r="4" ht="20" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>點心</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr"/>
+      <c r="C4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr"/>
+    </row>
+    <row r="5" ht="20" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>教材/冷氣</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr"/>
+      <c r="C5" s="2" t="inlineStr"/>
+      <c r="D5" s="2" t="inlineStr"/>
+      <c r="E5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr"/>
+    </row>
+    <row r="6" ht="20" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>共計</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr"/>
+      <c r="C6" s="2" t="inlineStr"/>
+      <c r="D6" s="2" t="inlineStr"/>
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr"/>
+    </row>
+    <row r="7" ht="20" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>收款人</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr"/>
+      <c r="C7" s="2" t="inlineStr"/>
+      <c r="D7" s="2" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>請於拿到收費袋一週內繳費，以便學校行政事務</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="31" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>三年仁班  楊小明1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>項目/月份</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>九月</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>十月</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>十一月</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>十二月</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>一月</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>費用</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr"/>
+      <c r="C3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr"/>
+    </row>
+    <row r="4" ht="20" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>點心</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr"/>
+      <c r="C4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr"/>
+    </row>
+    <row r="5" ht="20" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>教材/冷氣</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr"/>
+      <c r="C5" s="2" t="inlineStr"/>
+      <c r="D5" s="2" t="inlineStr"/>
+      <c r="E5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr"/>
+    </row>
+    <row r="6" ht="20" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>共計</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr"/>
+      <c r="C6" s="2" t="inlineStr"/>
+      <c r="D6" s="2" t="inlineStr"/>
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr"/>
+    </row>
+    <row r="7" ht="20" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>收款人</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr"/>
+      <c r="C7" s="2" t="inlineStr"/>
+      <c r="D7" s="2" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>請於拿到收費袋一週內繳費，以便學校行政事務</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/收費單.xlsx
+++ b/收費單.xlsx
@@ -61,7 +61,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -83,15 +83,61 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -471,7 +517,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31" customWidth="1" min="1" max="1"/>
+    <col width="33" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -480,134 +526,139 @@
           <t>一年忠班  呂彥臻</t>
         </is>
       </c>
-    </row>
-    <row r="2" ht="20" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="3" t="n"/>
+    </row>
+    <row r="2" ht="22" customHeight="1">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+    <row r="3" ht="22" customHeight="1">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr"/>
-      <c r="C3" s="2" t="inlineStr"/>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr"/>
-    </row>
-    <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr"/>
+      <c r="C3" s="4" t="inlineStr"/>
+      <c r="D3" s="4" t="inlineStr"/>
+      <c r="E3" s="4" t="inlineStr"/>
+      <c r="F3" s="4" t="inlineStr"/>
+    </row>
+    <row r="4" ht="22" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr"/>
-      <c r="C4" s="2" t="inlineStr"/>
-      <c r="D4" s="2" t="inlineStr"/>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr"/>
-    </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr"/>
+    </row>
+    <row r="5" ht="22" customHeight="1">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr"/>
-      <c r="C5" s="2" t="inlineStr"/>
-      <c r="D5" s="2" t="inlineStr"/>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
-    </row>
-    <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr"/>
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr"/>
+    </row>
+    <row r="6" ht="22" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr"/>
-      <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
-    </row>
-    <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr"/>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr"/>
+    </row>
+    <row r="7" ht="22" customHeight="1">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr"/>
-      <c r="C7" s="2" t="inlineStr"/>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr"/>
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" s="4" t="inlineStr"/>
+      <c r="E7" s="4" t="inlineStr"/>
+      <c r="F7" s="4" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>請於拿到收費袋一週內繳費，以便學校行政事務</t>
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -627,7 +678,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31" customWidth="1" min="1" max="1"/>
+    <col width="33" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -636,134 +687,139 @@
           <t>四年愛班  劉大象1</t>
         </is>
       </c>
-    </row>
-    <row r="2" ht="20" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="3" t="n"/>
+    </row>
+    <row r="2" ht="22" customHeight="1">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+    <row r="3" ht="22" customHeight="1">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr"/>
-      <c r="C3" s="2" t="inlineStr"/>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr"/>
-    </row>
-    <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr"/>
+      <c r="C3" s="4" t="inlineStr"/>
+      <c r="D3" s="4" t="inlineStr"/>
+      <c r="E3" s="4" t="inlineStr"/>
+      <c r="F3" s="4" t="inlineStr"/>
+    </row>
+    <row r="4" ht="22" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr"/>
-      <c r="C4" s="2" t="inlineStr"/>
-      <c r="D4" s="2" t="inlineStr"/>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr"/>
-    </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr"/>
+    </row>
+    <row r="5" ht="22" customHeight="1">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr"/>
-      <c r="C5" s="2" t="inlineStr"/>
-      <c r="D5" s="2" t="inlineStr"/>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
-    </row>
-    <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr"/>
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr"/>
+    </row>
+    <row r="6" ht="22" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr"/>
-      <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
-    </row>
-    <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr"/>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr"/>
+    </row>
+    <row r="7" ht="22" customHeight="1">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr"/>
-      <c r="C7" s="2" t="inlineStr"/>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr"/>
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" s="4" t="inlineStr"/>
+      <c r="E7" s="4" t="inlineStr"/>
+      <c r="F7" s="4" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>請於拿到收費袋一週內繳費，以便學校行政事務</t>
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -783,7 +839,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31" customWidth="1" min="1" max="1"/>
+    <col width="33" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -792,134 +848,139 @@
           <t>五年信班  陳中一1</t>
         </is>
       </c>
-    </row>
-    <row r="2" ht="20" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="3" t="n"/>
+    </row>
+    <row r="2" ht="22" customHeight="1">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+    <row r="3" ht="22" customHeight="1">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr"/>
-      <c r="C3" s="2" t="inlineStr"/>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr"/>
-    </row>
-    <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr"/>
+      <c r="C3" s="4" t="inlineStr"/>
+      <c r="D3" s="4" t="inlineStr"/>
+      <c r="E3" s="4" t="inlineStr"/>
+      <c r="F3" s="4" t="inlineStr"/>
+    </row>
+    <row r="4" ht="22" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr"/>
-      <c r="C4" s="2" t="inlineStr"/>
-      <c r="D4" s="2" t="inlineStr"/>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr"/>
-    </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr"/>
+    </row>
+    <row r="5" ht="22" customHeight="1">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr"/>
-      <c r="C5" s="2" t="inlineStr"/>
-      <c r="D5" s="2" t="inlineStr"/>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
-    </row>
-    <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr"/>
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr"/>
+    </row>
+    <row r="6" ht="22" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr"/>
-      <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
-    </row>
-    <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr"/>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr"/>
+    </row>
+    <row r="7" ht="22" customHeight="1">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr"/>
-      <c r="C7" s="2" t="inlineStr"/>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr"/>
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" s="4" t="inlineStr"/>
+      <c r="E7" s="4" t="inlineStr"/>
+      <c r="F7" s="4" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>請於拿到收費袋一週內繳費，以便學校行政事務</t>
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -939,7 +1000,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31" customWidth="1" min="1" max="1"/>
+    <col width="33" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -948,134 +1009,139 @@
           <t>六年義班  孫二1</t>
         </is>
       </c>
-    </row>
-    <row r="2" ht="20" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="3" t="n"/>
+    </row>
+    <row r="2" ht="22" customHeight="1">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+    <row r="3" ht="22" customHeight="1">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr"/>
-      <c r="C3" s="2" t="inlineStr"/>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr"/>
-    </row>
-    <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr"/>
+      <c r="C3" s="4" t="inlineStr"/>
+      <c r="D3" s="4" t="inlineStr"/>
+      <c r="E3" s="4" t="inlineStr"/>
+      <c r="F3" s="4" t="inlineStr"/>
+    </row>
+    <row r="4" ht="22" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr"/>
-      <c r="C4" s="2" t="inlineStr"/>
-      <c r="D4" s="2" t="inlineStr"/>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr"/>
-    </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr"/>
+    </row>
+    <row r="5" ht="22" customHeight="1">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr"/>
-      <c r="C5" s="2" t="inlineStr"/>
-      <c r="D5" s="2" t="inlineStr"/>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
-    </row>
-    <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr"/>
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr"/>
+    </row>
+    <row r="6" ht="22" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr"/>
-      <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
-    </row>
-    <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr"/>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr"/>
+    </row>
+    <row r="7" ht="22" customHeight="1">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr"/>
-      <c r="C7" s="2" t="inlineStr"/>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr"/>
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" s="4" t="inlineStr"/>
+      <c r="E7" s="4" t="inlineStr"/>
+      <c r="F7" s="4" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>請於拿到收費袋一週內繳費，以便學校行政事務</t>
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1095,7 +1161,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31" customWidth="1" min="1" max="1"/>
+    <col width="33" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -1104,134 +1170,139 @@
           <t>一年忠班  呂彥臻2</t>
         </is>
       </c>
-    </row>
-    <row r="2" ht="20" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="3" t="n"/>
+    </row>
+    <row r="2" ht="22" customHeight="1">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+    <row r="3" ht="22" customHeight="1">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr"/>
-      <c r="C3" s="2" t="inlineStr"/>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr"/>
-    </row>
-    <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr"/>
+      <c r="C3" s="4" t="inlineStr"/>
+      <c r="D3" s="4" t="inlineStr"/>
+      <c r="E3" s="4" t="inlineStr"/>
+      <c r="F3" s="4" t="inlineStr"/>
+    </row>
+    <row r="4" ht="22" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr"/>
-      <c r="C4" s="2" t="inlineStr"/>
-      <c r="D4" s="2" t="inlineStr"/>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr"/>
-    </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr"/>
+    </row>
+    <row r="5" ht="22" customHeight="1">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr"/>
-      <c r="C5" s="2" t="inlineStr"/>
-      <c r="D5" s="2" t="inlineStr"/>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
-    </row>
-    <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr"/>
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr"/>
+    </row>
+    <row r="6" ht="22" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr"/>
-      <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
-    </row>
-    <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr"/>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr"/>
+    </row>
+    <row r="7" ht="22" customHeight="1">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr"/>
-      <c r="C7" s="2" t="inlineStr"/>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr"/>
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" s="4" t="inlineStr"/>
+      <c r="E7" s="4" t="inlineStr"/>
+      <c r="F7" s="4" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>請於拿到收費袋一週內繳費，以便學校行政事務</t>
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1251,7 +1322,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31" customWidth="1" min="1" max="1"/>
+    <col width="33" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -1260,134 +1331,139 @@
           <t>二年孝班  王大同2</t>
         </is>
       </c>
-    </row>
-    <row r="2" ht="20" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="3" t="n"/>
+    </row>
+    <row r="2" ht="22" customHeight="1">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+    <row r="3" ht="22" customHeight="1">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr"/>
-      <c r="C3" s="2" t="inlineStr"/>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr"/>
-    </row>
-    <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr"/>
+      <c r="C3" s="4" t="inlineStr"/>
+      <c r="D3" s="4" t="inlineStr"/>
+      <c r="E3" s="4" t="inlineStr"/>
+      <c r="F3" s="4" t="inlineStr"/>
+    </row>
+    <row r="4" ht="22" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr"/>
-      <c r="C4" s="2" t="inlineStr"/>
-      <c r="D4" s="2" t="inlineStr"/>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr"/>
-    </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr"/>
+    </row>
+    <row r="5" ht="22" customHeight="1">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr"/>
-      <c r="C5" s="2" t="inlineStr"/>
-      <c r="D5" s="2" t="inlineStr"/>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
-    </row>
-    <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr"/>
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr"/>
+    </row>
+    <row r="6" ht="22" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr"/>
-      <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
-    </row>
-    <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr"/>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr"/>
+    </row>
+    <row r="7" ht="22" customHeight="1">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr"/>
-      <c r="C7" s="2" t="inlineStr"/>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr"/>
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" s="4" t="inlineStr"/>
+      <c r="E7" s="4" t="inlineStr"/>
+      <c r="F7" s="4" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>請於拿到收費袋一週內繳費，以便學校行政事務</t>
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1407,7 +1483,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31" customWidth="1" min="1" max="1"/>
+    <col width="33" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -1416,134 +1492,139 @@
           <t>二年孝班  王大同</t>
         </is>
       </c>
-    </row>
-    <row r="2" ht="20" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="3" t="n"/>
+    </row>
+    <row r="2" ht="22" customHeight="1">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+    <row r="3" ht="22" customHeight="1">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr"/>
-      <c r="C3" s="2" t="inlineStr"/>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr"/>
-    </row>
-    <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr"/>
+      <c r="C3" s="4" t="inlineStr"/>
+      <c r="D3" s="4" t="inlineStr"/>
+      <c r="E3" s="4" t="inlineStr"/>
+      <c r="F3" s="4" t="inlineStr"/>
+    </row>
+    <row r="4" ht="22" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr"/>
-      <c r="C4" s="2" t="inlineStr"/>
-      <c r="D4" s="2" t="inlineStr"/>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr"/>
-    </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr"/>
+    </row>
+    <row r="5" ht="22" customHeight="1">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr"/>
-      <c r="C5" s="2" t="inlineStr"/>
-      <c r="D5" s="2" t="inlineStr"/>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
-    </row>
-    <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr"/>
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr"/>
+    </row>
+    <row r="6" ht="22" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr"/>
-      <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
-    </row>
-    <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr"/>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr"/>
+    </row>
+    <row r="7" ht="22" customHeight="1">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr"/>
-      <c r="C7" s="2" t="inlineStr"/>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr"/>
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" s="4" t="inlineStr"/>
+      <c r="E7" s="4" t="inlineStr"/>
+      <c r="F7" s="4" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>請於拿到收費袋一週內繳費，以便學校行政事務</t>
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1563,7 +1644,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31" customWidth="1" min="1" max="1"/>
+    <col width="33" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -1572,134 +1653,139 @@
           <t>三年仁班  楊小明</t>
         </is>
       </c>
-    </row>
-    <row r="2" ht="20" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="3" t="n"/>
+    </row>
+    <row r="2" ht="22" customHeight="1">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+    <row r="3" ht="22" customHeight="1">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr"/>
-      <c r="C3" s="2" t="inlineStr"/>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr"/>
-    </row>
-    <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr"/>
+      <c r="C3" s="4" t="inlineStr"/>
+      <c r="D3" s="4" t="inlineStr"/>
+      <c r="E3" s="4" t="inlineStr"/>
+      <c r="F3" s="4" t="inlineStr"/>
+    </row>
+    <row r="4" ht="22" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr"/>
-      <c r="C4" s="2" t="inlineStr"/>
-      <c r="D4" s="2" t="inlineStr"/>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr"/>
-    </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr"/>
+    </row>
+    <row r="5" ht="22" customHeight="1">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr"/>
-      <c r="C5" s="2" t="inlineStr"/>
-      <c r="D5" s="2" t="inlineStr"/>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
-    </row>
-    <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr"/>
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr"/>
+    </row>
+    <row r="6" ht="22" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr"/>
-      <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
-    </row>
-    <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr"/>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr"/>
+    </row>
+    <row r="7" ht="22" customHeight="1">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr"/>
-      <c r="C7" s="2" t="inlineStr"/>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr"/>
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" s="4" t="inlineStr"/>
+      <c r="E7" s="4" t="inlineStr"/>
+      <c r="F7" s="4" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>請於拿到收費袋一週內繳費，以便學校行政事務</t>
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1719,7 +1805,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31" customWidth="1" min="1" max="1"/>
+    <col width="33" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -1728,134 +1814,139 @@
           <t>四年愛班  劉大象</t>
         </is>
       </c>
-    </row>
-    <row r="2" ht="20" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="3" t="n"/>
+    </row>
+    <row r="2" ht="22" customHeight="1">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+    <row r="3" ht="22" customHeight="1">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr"/>
-      <c r="C3" s="2" t="inlineStr"/>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr"/>
-    </row>
-    <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr"/>
+      <c r="C3" s="4" t="inlineStr"/>
+      <c r="D3" s="4" t="inlineStr"/>
+      <c r="E3" s="4" t="inlineStr"/>
+      <c r="F3" s="4" t="inlineStr"/>
+    </row>
+    <row r="4" ht="22" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr"/>
-      <c r="C4" s="2" t="inlineStr"/>
-      <c r="D4" s="2" t="inlineStr"/>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr"/>
-    </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr"/>
+    </row>
+    <row r="5" ht="22" customHeight="1">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr"/>
-      <c r="C5" s="2" t="inlineStr"/>
-      <c r="D5" s="2" t="inlineStr"/>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
-    </row>
-    <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr"/>
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr"/>
+    </row>
+    <row r="6" ht="22" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr"/>
-      <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
-    </row>
-    <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr"/>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr"/>
+    </row>
+    <row r="7" ht="22" customHeight="1">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr"/>
-      <c r="C7" s="2" t="inlineStr"/>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr"/>
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" s="4" t="inlineStr"/>
+      <c r="E7" s="4" t="inlineStr"/>
+      <c r="F7" s="4" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>請於拿到收費袋一週內繳費，以便學校行政事務</t>
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1875,7 +1966,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31" customWidth="1" min="1" max="1"/>
+    <col width="33" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -1884,134 +1975,139 @@
           <t>五年信班  陳中一</t>
         </is>
       </c>
-    </row>
-    <row r="2" ht="20" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="3" t="n"/>
+    </row>
+    <row r="2" ht="22" customHeight="1">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+    <row r="3" ht="22" customHeight="1">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr"/>
-      <c r="C3" s="2" t="inlineStr"/>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr"/>
-    </row>
-    <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr"/>
+      <c r="C3" s="4" t="inlineStr"/>
+      <c r="D3" s="4" t="inlineStr"/>
+      <c r="E3" s="4" t="inlineStr"/>
+      <c r="F3" s="4" t="inlineStr"/>
+    </row>
+    <row r="4" ht="22" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr"/>
-      <c r="C4" s="2" t="inlineStr"/>
-      <c r="D4" s="2" t="inlineStr"/>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr"/>
-    </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr"/>
+    </row>
+    <row r="5" ht="22" customHeight="1">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr"/>
-      <c r="C5" s="2" t="inlineStr"/>
-      <c r="D5" s="2" t="inlineStr"/>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
-    </row>
-    <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr"/>
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr"/>
+    </row>
+    <row r="6" ht="22" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr"/>
-      <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
-    </row>
-    <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr"/>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr"/>
+    </row>
+    <row r="7" ht="22" customHeight="1">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr"/>
-      <c r="C7" s="2" t="inlineStr"/>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr"/>
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" s="4" t="inlineStr"/>
+      <c r="E7" s="4" t="inlineStr"/>
+      <c r="F7" s="4" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>請於拿到收費袋一週內繳費，以便學校行政事務</t>
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2031,7 +2127,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31" customWidth="1" min="1" max="1"/>
+    <col width="33" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -2040,134 +2136,139 @@
           <t>六年義班  孫二</t>
         </is>
       </c>
-    </row>
-    <row r="2" ht="20" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="3" t="n"/>
+    </row>
+    <row r="2" ht="22" customHeight="1">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+    <row r="3" ht="22" customHeight="1">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr"/>
-      <c r="C3" s="2" t="inlineStr"/>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr"/>
-    </row>
-    <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr"/>
+      <c r="C3" s="4" t="inlineStr"/>
+      <c r="D3" s="4" t="inlineStr"/>
+      <c r="E3" s="4" t="inlineStr"/>
+      <c r="F3" s="4" t="inlineStr"/>
+    </row>
+    <row r="4" ht="22" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr"/>
-      <c r="C4" s="2" t="inlineStr"/>
-      <c r="D4" s="2" t="inlineStr"/>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr"/>
-    </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr"/>
+    </row>
+    <row r="5" ht="22" customHeight="1">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr"/>
-      <c r="C5" s="2" t="inlineStr"/>
-      <c r="D5" s="2" t="inlineStr"/>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
-    </row>
-    <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr"/>
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr"/>
+    </row>
+    <row r="6" ht="22" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr"/>
-      <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
-    </row>
-    <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr"/>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr"/>
+    </row>
+    <row r="7" ht="22" customHeight="1">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr"/>
-      <c r="C7" s="2" t="inlineStr"/>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr"/>
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" s="4" t="inlineStr"/>
+      <c r="E7" s="4" t="inlineStr"/>
+      <c r="F7" s="4" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>請於拿到收費袋一週內繳費，以便學校行政事務</t>
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2187,7 +2288,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31" customWidth="1" min="1" max="1"/>
+    <col width="33" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -2196,134 +2297,139 @@
           <t>一年忠班  呂彥臻1</t>
         </is>
       </c>
-    </row>
-    <row r="2" ht="20" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="3" t="n"/>
+    </row>
+    <row r="2" ht="22" customHeight="1">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+    <row r="3" ht="22" customHeight="1">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr"/>
-      <c r="C3" s="2" t="inlineStr"/>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr"/>
-    </row>
-    <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr"/>
+      <c r="C3" s="4" t="inlineStr"/>
+      <c r="D3" s="4" t="inlineStr"/>
+      <c r="E3" s="4" t="inlineStr"/>
+      <c r="F3" s="4" t="inlineStr"/>
+    </row>
+    <row r="4" ht="22" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr"/>
-      <c r="C4" s="2" t="inlineStr"/>
-      <c r="D4" s="2" t="inlineStr"/>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr"/>
-    </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr"/>
+    </row>
+    <row r="5" ht="22" customHeight="1">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr"/>
-      <c r="C5" s="2" t="inlineStr"/>
-      <c r="D5" s="2" t="inlineStr"/>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
-    </row>
-    <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr"/>
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr"/>
+    </row>
+    <row r="6" ht="22" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr"/>
-      <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
-    </row>
-    <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr"/>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr"/>
+    </row>
+    <row r="7" ht="22" customHeight="1">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr"/>
-      <c r="C7" s="2" t="inlineStr"/>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr"/>
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" s="4" t="inlineStr"/>
+      <c r="E7" s="4" t="inlineStr"/>
+      <c r="F7" s="4" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>請於拿到收費袋一週內繳費，以便學校行政事務</t>
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2343,7 +2449,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31" customWidth="1" min="1" max="1"/>
+    <col width="33" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -2352,134 +2458,139 @@
           <t>二年孝班  王大同1</t>
         </is>
       </c>
-    </row>
-    <row r="2" ht="20" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="3" t="n"/>
+    </row>
+    <row r="2" ht="22" customHeight="1">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+    <row r="3" ht="22" customHeight="1">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr"/>
-      <c r="C3" s="2" t="inlineStr"/>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr"/>
-    </row>
-    <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr"/>
+      <c r="C3" s="4" t="inlineStr"/>
+      <c r="D3" s="4" t="inlineStr"/>
+      <c r="E3" s="4" t="inlineStr"/>
+      <c r="F3" s="4" t="inlineStr"/>
+    </row>
+    <row r="4" ht="22" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr"/>
-      <c r="C4" s="2" t="inlineStr"/>
-      <c r="D4" s="2" t="inlineStr"/>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr"/>
-    </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr"/>
+    </row>
+    <row r="5" ht="22" customHeight="1">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr"/>
-      <c r="C5" s="2" t="inlineStr"/>
-      <c r="D5" s="2" t="inlineStr"/>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
-    </row>
-    <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr"/>
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr"/>
+    </row>
+    <row r="6" ht="22" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr"/>
-      <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
-    </row>
-    <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr"/>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr"/>
+    </row>
+    <row r="7" ht="22" customHeight="1">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr"/>
-      <c r="C7" s="2" t="inlineStr"/>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr"/>
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" s="4" t="inlineStr"/>
+      <c r="E7" s="4" t="inlineStr"/>
+      <c r="F7" s="4" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>請於拿到收費袋一週內繳費，以便學校行政事務</t>
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2499,7 +2610,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31" customWidth="1" min="1" max="1"/>
+    <col width="33" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -2508,134 +2619,139 @@
           <t>三年仁班  楊小明1</t>
         </is>
       </c>
-    </row>
-    <row r="2" ht="20" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="3" t="n"/>
+    </row>
+    <row r="2" ht="22" customHeight="1">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
+    <row r="3" ht="22" customHeight="1">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr"/>
-      <c r="C3" s="2" t="inlineStr"/>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr"/>
-    </row>
-    <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr"/>
+      <c r="C3" s="4" t="inlineStr"/>
+      <c r="D3" s="4" t="inlineStr"/>
+      <c r="E3" s="4" t="inlineStr"/>
+      <c r="F3" s="4" t="inlineStr"/>
+    </row>
+    <row r="4" ht="22" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr"/>
-      <c r="C4" s="2" t="inlineStr"/>
-      <c r="D4" s="2" t="inlineStr"/>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr"/>
-    </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr"/>
+    </row>
+    <row r="5" ht="22" customHeight="1">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr"/>
-      <c r="C5" s="2" t="inlineStr"/>
-      <c r="D5" s="2" t="inlineStr"/>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
-    </row>
-    <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr"/>
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr"/>
+    </row>
+    <row r="6" ht="22" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr"/>
-      <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
-    </row>
-    <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr"/>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr"/>
+    </row>
+    <row r="7" ht="22" customHeight="1">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr"/>
-      <c r="C7" s="2" t="inlineStr"/>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr"/>
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" s="4" t="inlineStr"/>
+      <c r="E7" s="4" t="inlineStr"/>
+      <c r="F7" s="4" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>請於拿到收費袋一週內繳費，以便學校行政事務</t>
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/收費單.xlsx
+++ b/收費單.xlsx
@@ -168,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -177,6 +177,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -578,42 +581,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -625,14 +628,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr"/>
-      <c r="C3" s="4" t="inlineStr"/>
-      <c r="D3" s="4" t="inlineStr"/>
-      <c r="E3" s="4" t="inlineStr"/>
-      <c r="F3" s="4" t="inlineStr"/>
-      <c r="G3" s="4" t="inlineStr"/>
-      <c r="H3" s="4" t="inlineStr"/>
-      <c r="I3" s="4" t="inlineStr"/>
+      <c r="B3" s="5" t="inlineStr"/>
+      <c r="C3" s="5" t="inlineStr"/>
+      <c r="D3" s="5" t="inlineStr"/>
+      <c r="E3" s="5" t="inlineStr"/>
+      <c r="F3" s="5" t="inlineStr"/>
+      <c r="G3" s="5" t="inlineStr"/>
+      <c r="H3" s="5" t="inlineStr"/>
+      <c r="I3" s="5" t="inlineStr"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
@@ -640,14 +643,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr"/>
+      <c r="B4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
@@ -655,14 +658,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="4" t="inlineStr"/>
-      <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="4" t="inlineStr"/>
+      <c r="B5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
@@ -670,14 +673,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
+      <c r="B6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
@@ -685,38 +688,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
-      <c r="G7" s="4" t="inlineStr"/>
-      <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="4" t="inlineStr"/>
+      <c r="B7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -772,42 +775,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -819,14 +822,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr"/>
-      <c r="C3" s="4" t="inlineStr"/>
-      <c r="D3" s="4" t="inlineStr"/>
-      <c r="E3" s="4" t="inlineStr"/>
-      <c r="F3" s="4" t="inlineStr"/>
-      <c r="G3" s="4" t="inlineStr"/>
-      <c r="H3" s="4" t="inlineStr"/>
-      <c r="I3" s="4" t="inlineStr"/>
+      <c r="B3" s="5" t="inlineStr"/>
+      <c r="C3" s="5" t="inlineStr"/>
+      <c r="D3" s="5" t="inlineStr"/>
+      <c r="E3" s="5" t="inlineStr"/>
+      <c r="F3" s="5" t="inlineStr"/>
+      <c r="G3" s="5" t="inlineStr"/>
+      <c r="H3" s="5" t="inlineStr"/>
+      <c r="I3" s="5" t="inlineStr"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
@@ -834,14 +837,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr"/>
+      <c r="B4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
@@ -849,14 +852,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="4" t="inlineStr"/>
-      <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="4" t="inlineStr"/>
+      <c r="B5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
@@ -864,14 +867,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
+      <c r="B6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
@@ -879,38 +882,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
-      <c r="G7" s="4" t="inlineStr"/>
-      <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="4" t="inlineStr"/>
+      <c r="B7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -966,42 +969,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -1013,14 +1016,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr"/>
-      <c r="C3" s="4" t="inlineStr"/>
-      <c r="D3" s="4" t="inlineStr"/>
-      <c r="E3" s="4" t="inlineStr"/>
-      <c r="F3" s="4" t="inlineStr"/>
-      <c r="G3" s="4" t="inlineStr"/>
-      <c r="H3" s="4" t="inlineStr"/>
-      <c r="I3" s="4" t="inlineStr"/>
+      <c r="B3" s="5" t="inlineStr"/>
+      <c r="C3" s="5" t="inlineStr"/>
+      <c r="D3" s="5" t="inlineStr"/>
+      <c r="E3" s="5" t="inlineStr"/>
+      <c r="F3" s="5" t="inlineStr"/>
+      <c r="G3" s="5" t="inlineStr"/>
+      <c r="H3" s="5" t="inlineStr"/>
+      <c r="I3" s="5" t="inlineStr"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
@@ -1028,14 +1031,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr"/>
+      <c r="B4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
@@ -1043,14 +1046,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="4" t="inlineStr"/>
-      <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="4" t="inlineStr"/>
+      <c r="B5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
@@ -1058,14 +1061,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
+      <c r="B6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
@@ -1073,38 +1076,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
-      <c r="G7" s="4" t="inlineStr"/>
-      <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="4" t="inlineStr"/>
+      <c r="B7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -1160,42 +1163,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -1207,14 +1210,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr"/>
-      <c r="C3" s="4" t="inlineStr"/>
-      <c r="D3" s="4" t="inlineStr"/>
-      <c r="E3" s="4" t="inlineStr"/>
-      <c r="F3" s="4" t="inlineStr"/>
-      <c r="G3" s="4" t="inlineStr"/>
-      <c r="H3" s="4" t="inlineStr"/>
-      <c r="I3" s="4" t="inlineStr"/>
+      <c r="B3" s="5" t="inlineStr"/>
+      <c r="C3" s="5" t="inlineStr"/>
+      <c r="D3" s="5" t="inlineStr"/>
+      <c r="E3" s="5" t="inlineStr"/>
+      <c r="F3" s="5" t="inlineStr"/>
+      <c r="G3" s="5" t="inlineStr"/>
+      <c r="H3" s="5" t="inlineStr"/>
+      <c r="I3" s="5" t="inlineStr"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
@@ -1222,14 +1225,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr"/>
+      <c r="B4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
@@ -1237,14 +1240,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="4" t="inlineStr"/>
-      <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="4" t="inlineStr"/>
+      <c r="B5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
@@ -1252,14 +1255,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
+      <c r="B6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
@@ -1267,38 +1270,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
-      <c r="G7" s="4" t="inlineStr"/>
-      <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="4" t="inlineStr"/>
+      <c r="B7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -1354,42 +1357,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -1401,14 +1404,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr"/>
-      <c r="C3" s="4" t="inlineStr"/>
-      <c r="D3" s="4" t="inlineStr"/>
-      <c r="E3" s="4" t="inlineStr"/>
-      <c r="F3" s="4" t="inlineStr"/>
-      <c r="G3" s="4" t="inlineStr"/>
-      <c r="H3" s="4" t="inlineStr"/>
-      <c r="I3" s="4" t="inlineStr"/>
+      <c r="B3" s="5" t="inlineStr"/>
+      <c r="C3" s="5" t="inlineStr"/>
+      <c r="D3" s="5" t="inlineStr"/>
+      <c r="E3" s="5" t="inlineStr"/>
+      <c r="F3" s="5" t="inlineStr"/>
+      <c r="G3" s="5" t="inlineStr"/>
+      <c r="H3" s="5" t="inlineStr"/>
+      <c r="I3" s="5" t="inlineStr"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
@@ -1416,14 +1419,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr"/>
+      <c r="B4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
@@ -1431,14 +1434,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="4" t="inlineStr"/>
-      <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="4" t="inlineStr"/>
+      <c r="B5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
@@ -1446,14 +1449,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
+      <c r="B6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
@@ -1461,38 +1464,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
-      <c r="G7" s="4" t="inlineStr"/>
-      <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="4" t="inlineStr"/>
+      <c r="B7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -1548,42 +1551,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -1595,14 +1598,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr"/>
-      <c r="C3" s="4" t="inlineStr"/>
-      <c r="D3" s="4" t="inlineStr"/>
-      <c r="E3" s="4" t="inlineStr"/>
-      <c r="F3" s="4" t="inlineStr"/>
-      <c r="G3" s="4" t="inlineStr"/>
-      <c r="H3" s="4" t="inlineStr"/>
-      <c r="I3" s="4" t="inlineStr"/>
+      <c r="B3" s="5" t="inlineStr"/>
+      <c r="C3" s="5" t="inlineStr"/>
+      <c r="D3" s="5" t="inlineStr"/>
+      <c r="E3" s="5" t="inlineStr"/>
+      <c r="F3" s="5" t="inlineStr"/>
+      <c r="G3" s="5" t="inlineStr"/>
+      <c r="H3" s="5" t="inlineStr"/>
+      <c r="I3" s="5" t="inlineStr"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
@@ -1610,14 +1613,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr"/>
+      <c r="B4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
@@ -1625,14 +1628,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="4" t="inlineStr"/>
-      <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="4" t="inlineStr"/>
+      <c r="B5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
@@ -1640,14 +1643,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
+      <c r="B6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
@@ -1655,38 +1658,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
-      <c r="G7" s="4" t="inlineStr"/>
-      <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="4" t="inlineStr"/>
+      <c r="B7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -1742,42 +1745,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -1789,14 +1792,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr"/>
-      <c r="C3" s="4" t="inlineStr"/>
-      <c r="D3" s="4" t="inlineStr"/>
-      <c r="E3" s="4" t="inlineStr"/>
-      <c r="F3" s="4" t="inlineStr"/>
-      <c r="G3" s="4" t="inlineStr"/>
-      <c r="H3" s="4" t="inlineStr"/>
-      <c r="I3" s="4" t="inlineStr"/>
+      <c r="B3" s="5" t="inlineStr"/>
+      <c r="C3" s="5" t="inlineStr"/>
+      <c r="D3" s="5" t="inlineStr"/>
+      <c r="E3" s="5" t="inlineStr"/>
+      <c r="F3" s="5" t="inlineStr"/>
+      <c r="G3" s="5" t="inlineStr"/>
+      <c r="H3" s="5" t="inlineStr"/>
+      <c r="I3" s="5" t="inlineStr"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
@@ -1804,14 +1807,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr"/>
+      <c r="B4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
@@ -1819,14 +1822,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="4" t="inlineStr"/>
-      <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="4" t="inlineStr"/>
+      <c r="B5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
@@ -1834,14 +1837,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
+      <c r="B6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
@@ -1849,38 +1852,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
-      <c r="G7" s="4" t="inlineStr"/>
-      <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="4" t="inlineStr"/>
+      <c r="B7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -1936,42 +1939,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -1983,14 +1986,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr"/>
-      <c r="C3" s="4" t="inlineStr"/>
-      <c r="D3" s="4" t="inlineStr"/>
-      <c r="E3" s="4" t="inlineStr"/>
-      <c r="F3" s="4" t="inlineStr"/>
-      <c r="G3" s="4" t="inlineStr"/>
-      <c r="H3" s="4" t="inlineStr"/>
-      <c r="I3" s="4" t="inlineStr"/>
+      <c r="B3" s="5" t="inlineStr"/>
+      <c r="C3" s="5" t="inlineStr"/>
+      <c r="D3" s="5" t="inlineStr"/>
+      <c r="E3" s="5" t="inlineStr"/>
+      <c r="F3" s="5" t="inlineStr"/>
+      <c r="G3" s="5" t="inlineStr"/>
+      <c r="H3" s="5" t="inlineStr"/>
+      <c r="I3" s="5" t="inlineStr"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
@@ -1998,14 +2001,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr"/>
+      <c r="B4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
@@ -2013,14 +2016,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="4" t="inlineStr"/>
-      <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="4" t="inlineStr"/>
+      <c r="B5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
@@ -2028,14 +2031,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
+      <c r="B6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
@@ -2043,38 +2046,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
-      <c r="G7" s="4" t="inlineStr"/>
-      <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="4" t="inlineStr"/>
+      <c r="B7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -2130,42 +2133,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -2177,14 +2180,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr"/>
-      <c r="C3" s="4" t="inlineStr"/>
-      <c r="D3" s="4" t="inlineStr"/>
-      <c r="E3" s="4" t="inlineStr"/>
-      <c r="F3" s="4" t="inlineStr"/>
-      <c r="G3" s="4" t="inlineStr"/>
-      <c r="H3" s="4" t="inlineStr"/>
-      <c r="I3" s="4" t="inlineStr"/>
+      <c r="B3" s="5" t="inlineStr"/>
+      <c r="C3" s="5" t="inlineStr"/>
+      <c r="D3" s="5" t="inlineStr"/>
+      <c r="E3" s="5" t="inlineStr"/>
+      <c r="F3" s="5" t="inlineStr"/>
+      <c r="G3" s="5" t="inlineStr"/>
+      <c r="H3" s="5" t="inlineStr"/>
+      <c r="I3" s="5" t="inlineStr"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
@@ -2192,14 +2195,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr"/>
+      <c r="B4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
@@ -2207,14 +2210,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="4" t="inlineStr"/>
-      <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="4" t="inlineStr"/>
+      <c r="B5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
@@ -2222,14 +2225,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
+      <c r="B6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
@@ -2237,38 +2240,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
-      <c r="G7" s="4" t="inlineStr"/>
-      <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="4" t="inlineStr"/>
+      <c r="B7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -2324,42 +2327,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -2371,14 +2374,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr"/>
-      <c r="C3" s="4" t="inlineStr"/>
-      <c r="D3" s="4" t="inlineStr"/>
-      <c r="E3" s="4" t="inlineStr"/>
-      <c r="F3" s="4" t="inlineStr"/>
-      <c r="G3" s="4" t="inlineStr"/>
-      <c r="H3" s="4" t="inlineStr"/>
-      <c r="I3" s="4" t="inlineStr"/>
+      <c r="B3" s="5" t="inlineStr"/>
+      <c r="C3" s="5" t="inlineStr"/>
+      <c r="D3" s="5" t="inlineStr"/>
+      <c r="E3" s="5" t="inlineStr"/>
+      <c r="F3" s="5" t="inlineStr"/>
+      <c r="G3" s="5" t="inlineStr"/>
+      <c r="H3" s="5" t="inlineStr"/>
+      <c r="I3" s="5" t="inlineStr"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
@@ -2386,14 +2389,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr"/>
+      <c r="B4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
@@ -2401,14 +2404,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="4" t="inlineStr"/>
-      <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="4" t="inlineStr"/>
+      <c r="B5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
@@ -2416,14 +2419,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
+      <c r="B6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
@@ -2431,38 +2434,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
-      <c r="G7" s="4" t="inlineStr"/>
-      <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="4" t="inlineStr"/>
+      <c r="B7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -2518,42 +2521,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -2565,14 +2568,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr"/>
-      <c r="C3" s="4" t="inlineStr"/>
-      <c r="D3" s="4" t="inlineStr"/>
-      <c r="E3" s="4" t="inlineStr"/>
-      <c r="F3" s="4" t="inlineStr"/>
-      <c r="G3" s="4" t="inlineStr"/>
-      <c r="H3" s="4" t="inlineStr"/>
-      <c r="I3" s="4" t="inlineStr"/>
+      <c r="B3" s="5" t="inlineStr"/>
+      <c r="C3" s="5" t="inlineStr"/>
+      <c r="D3" s="5" t="inlineStr"/>
+      <c r="E3" s="5" t="inlineStr"/>
+      <c r="F3" s="5" t="inlineStr"/>
+      <c r="G3" s="5" t="inlineStr"/>
+      <c r="H3" s="5" t="inlineStr"/>
+      <c r="I3" s="5" t="inlineStr"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
@@ -2580,14 +2583,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr"/>
+      <c r="B4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
@@ -2595,14 +2598,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="4" t="inlineStr"/>
-      <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="4" t="inlineStr"/>
+      <c r="B5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
@@ -2610,14 +2613,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
+      <c r="B6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
@@ -2625,38 +2628,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
-      <c r="G7" s="4" t="inlineStr"/>
-      <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="4" t="inlineStr"/>
+      <c r="B7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -2712,42 +2715,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -2759,14 +2762,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr"/>
-      <c r="C3" s="4" t="inlineStr"/>
-      <c r="D3" s="4" t="inlineStr"/>
-      <c r="E3" s="4" t="inlineStr"/>
-      <c r="F3" s="4" t="inlineStr"/>
-      <c r="G3" s="4" t="inlineStr"/>
-      <c r="H3" s="4" t="inlineStr"/>
-      <c r="I3" s="4" t="inlineStr"/>
+      <c r="B3" s="5" t="inlineStr"/>
+      <c r="C3" s="5" t="inlineStr"/>
+      <c r="D3" s="5" t="inlineStr"/>
+      <c r="E3" s="5" t="inlineStr"/>
+      <c r="F3" s="5" t="inlineStr"/>
+      <c r="G3" s="5" t="inlineStr"/>
+      <c r="H3" s="5" t="inlineStr"/>
+      <c r="I3" s="5" t="inlineStr"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
@@ -2774,14 +2777,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr"/>
+      <c r="B4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
@@ -2789,14 +2792,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="4" t="inlineStr"/>
-      <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="4" t="inlineStr"/>
+      <c r="B5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
@@ -2804,14 +2807,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
+      <c r="B6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
@@ -2819,38 +2822,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
-      <c r="G7" s="4" t="inlineStr"/>
-      <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="4" t="inlineStr"/>
+      <c r="B7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -2906,42 +2909,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -2953,14 +2956,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr"/>
-      <c r="C3" s="4" t="inlineStr"/>
-      <c r="D3" s="4" t="inlineStr"/>
-      <c r="E3" s="4" t="inlineStr"/>
-      <c r="F3" s="4" t="inlineStr"/>
-      <c r="G3" s="4" t="inlineStr"/>
-      <c r="H3" s="4" t="inlineStr"/>
-      <c r="I3" s="4" t="inlineStr"/>
+      <c r="B3" s="5" t="inlineStr"/>
+      <c r="C3" s="5" t="inlineStr"/>
+      <c r="D3" s="5" t="inlineStr"/>
+      <c r="E3" s="5" t="inlineStr"/>
+      <c r="F3" s="5" t="inlineStr"/>
+      <c r="G3" s="5" t="inlineStr"/>
+      <c r="H3" s="5" t="inlineStr"/>
+      <c r="I3" s="5" t="inlineStr"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
@@ -2968,14 +2971,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr"/>
+      <c r="B4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
@@ -2983,14 +2986,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="4" t="inlineStr"/>
-      <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="4" t="inlineStr"/>
+      <c r="B5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
@@ -2998,14 +3001,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
+      <c r="B6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
@@ -3013,38 +3016,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
-      <c r="G7" s="4" t="inlineStr"/>
-      <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="4" t="inlineStr"/>
+      <c r="B7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -3100,42 +3103,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -3147,14 +3150,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr"/>
-      <c r="C3" s="4" t="inlineStr"/>
-      <c r="D3" s="4" t="inlineStr"/>
-      <c r="E3" s="4" t="inlineStr"/>
-      <c r="F3" s="4" t="inlineStr"/>
-      <c r="G3" s="4" t="inlineStr"/>
-      <c r="H3" s="4" t="inlineStr"/>
-      <c r="I3" s="4" t="inlineStr"/>
+      <c r="B3" s="5" t="inlineStr"/>
+      <c r="C3" s="5" t="inlineStr"/>
+      <c r="D3" s="5" t="inlineStr"/>
+      <c r="E3" s="5" t="inlineStr"/>
+      <c r="F3" s="5" t="inlineStr"/>
+      <c r="G3" s="5" t="inlineStr"/>
+      <c r="H3" s="5" t="inlineStr"/>
+      <c r="I3" s="5" t="inlineStr"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
@@ -3162,14 +3165,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr"/>
+      <c r="B4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
@@ -3177,14 +3180,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="4" t="inlineStr"/>
-      <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="4" t="inlineStr"/>
+      <c r="B5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
@@ -3192,14 +3195,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
+      <c r="B6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
@@ -3207,38 +3210,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
-      <c r="G7" s="4" t="inlineStr"/>
-      <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="4" t="inlineStr"/>
+      <c r="B7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -3294,42 +3297,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -3341,14 +3344,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr"/>
-      <c r="C3" s="4" t="inlineStr"/>
-      <c r="D3" s="4" t="inlineStr"/>
-      <c r="E3" s="4" t="inlineStr"/>
-      <c r="F3" s="4" t="inlineStr"/>
-      <c r="G3" s="4" t="inlineStr"/>
-      <c r="H3" s="4" t="inlineStr"/>
-      <c r="I3" s="4" t="inlineStr"/>
+      <c r="B3" s="5" t="inlineStr"/>
+      <c r="C3" s="5" t="inlineStr"/>
+      <c r="D3" s="5" t="inlineStr"/>
+      <c r="E3" s="5" t="inlineStr"/>
+      <c r="F3" s="5" t="inlineStr"/>
+      <c r="G3" s="5" t="inlineStr"/>
+      <c r="H3" s="5" t="inlineStr"/>
+      <c r="I3" s="5" t="inlineStr"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
@@ -3356,14 +3359,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr"/>
+      <c r="B4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
@@ -3371,14 +3374,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="4" t="inlineStr"/>
-      <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="4" t="inlineStr"/>
+      <c r="B5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
@@ -3386,14 +3389,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
+      <c r="B6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
@@ -3401,38 +3404,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
-      <c r="G7" s="4" t="inlineStr"/>
-      <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="4" t="inlineStr"/>
+      <c r="B7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -3488,42 +3491,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -3535,14 +3538,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr"/>
-      <c r="C3" s="4" t="inlineStr"/>
-      <c r="D3" s="4" t="inlineStr"/>
-      <c r="E3" s="4" t="inlineStr"/>
-      <c r="F3" s="4" t="inlineStr"/>
-      <c r="G3" s="4" t="inlineStr"/>
-      <c r="H3" s="4" t="inlineStr"/>
-      <c r="I3" s="4" t="inlineStr"/>
+      <c r="B3" s="5" t="inlineStr"/>
+      <c r="C3" s="5" t="inlineStr"/>
+      <c r="D3" s="5" t="inlineStr"/>
+      <c r="E3" s="5" t="inlineStr"/>
+      <c r="F3" s="5" t="inlineStr"/>
+      <c r="G3" s="5" t="inlineStr"/>
+      <c r="H3" s="5" t="inlineStr"/>
+      <c r="I3" s="5" t="inlineStr"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
@@ -3550,14 +3553,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr"/>
+      <c r="B4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
@@ -3565,14 +3568,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="4" t="inlineStr"/>
-      <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="4" t="inlineStr"/>
+      <c r="B5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
@@ -3580,14 +3583,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
+      <c r="B6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
@@ -3595,38 +3598,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
-      <c r="G7" s="4" t="inlineStr"/>
-      <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="4" t="inlineStr"/>
+      <c r="B7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -3682,42 +3685,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -3729,14 +3732,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr"/>
-      <c r="C3" s="4" t="inlineStr"/>
-      <c r="D3" s="4" t="inlineStr"/>
-      <c r="E3" s="4" t="inlineStr"/>
-      <c r="F3" s="4" t="inlineStr"/>
-      <c r="G3" s="4" t="inlineStr"/>
-      <c r="H3" s="4" t="inlineStr"/>
-      <c r="I3" s="4" t="inlineStr"/>
+      <c r="B3" s="5" t="inlineStr"/>
+      <c r="C3" s="5" t="inlineStr"/>
+      <c r="D3" s="5" t="inlineStr"/>
+      <c r="E3" s="5" t="inlineStr"/>
+      <c r="F3" s="5" t="inlineStr"/>
+      <c r="G3" s="5" t="inlineStr"/>
+      <c r="H3" s="5" t="inlineStr"/>
+      <c r="I3" s="5" t="inlineStr"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
@@ -3744,14 +3747,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr"/>
+      <c r="B4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
@@ -3759,14 +3762,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="4" t="inlineStr"/>
-      <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="4" t="inlineStr"/>
+      <c r="B5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
@@ -3774,14 +3777,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
+      <c r="B6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
@@ -3789,38 +3792,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
-      <c r="G7" s="4" t="inlineStr"/>
-      <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="4" t="inlineStr"/>
+      <c r="B7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -3876,42 +3879,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -3923,14 +3926,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr"/>
-      <c r="C3" s="4" t="inlineStr"/>
-      <c r="D3" s="4" t="inlineStr"/>
-      <c r="E3" s="4" t="inlineStr"/>
-      <c r="F3" s="4" t="inlineStr"/>
-      <c r="G3" s="4" t="inlineStr"/>
-      <c r="H3" s="4" t="inlineStr"/>
-      <c r="I3" s="4" t="inlineStr"/>
+      <c r="B3" s="5" t="inlineStr"/>
+      <c r="C3" s="5" t="inlineStr"/>
+      <c r="D3" s="5" t="inlineStr"/>
+      <c r="E3" s="5" t="inlineStr"/>
+      <c r="F3" s="5" t="inlineStr"/>
+      <c r="G3" s="5" t="inlineStr"/>
+      <c r="H3" s="5" t="inlineStr"/>
+      <c r="I3" s="5" t="inlineStr"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
@@ -3938,14 +3941,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr"/>
+      <c r="B4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
@@ -3953,14 +3956,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="4" t="inlineStr"/>
-      <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="4" t="inlineStr"/>
+      <c r="B5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
@@ -3968,14 +3971,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
+      <c r="B6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
@@ -3983,38 +3986,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
-      <c r="G7" s="4" t="inlineStr"/>
-      <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="4" t="inlineStr"/>
+      <c r="B7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -4070,42 +4073,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -4117,14 +4120,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr"/>
-      <c r="C3" s="4" t="inlineStr"/>
-      <c r="D3" s="4" t="inlineStr"/>
-      <c r="E3" s="4" t="inlineStr"/>
-      <c r="F3" s="4" t="inlineStr"/>
-      <c r="G3" s="4" t="inlineStr"/>
-      <c r="H3" s="4" t="inlineStr"/>
-      <c r="I3" s="4" t="inlineStr"/>
+      <c r="B3" s="5" t="inlineStr"/>
+      <c r="C3" s="5" t="inlineStr"/>
+      <c r="D3" s="5" t="inlineStr"/>
+      <c r="E3" s="5" t="inlineStr"/>
+      <c r="F3" s="5" t="inlineStr"/>
+      <c r="G3" s="5" t="inlineStr"/>
+      <c r="H3" s="5" t="inlineStr"/>
+      <c r="I3" s="5" t="inlineStr"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
@@ -4132,14 +4135,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr"/>
+      <c r="B4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
@@ -4147,14 +4150,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="4" t="inlineStr"/>
-      <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="4" t="inlineStr"/>
+      <c r="B5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
@@ -4162,14 +4165,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
+      <c r="B6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
@@ -4177,38 +4180,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
-      <c r="G7" s="4" t="inlineStr"/>
-      <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="4" t="inlineStr"/>
+      <c r="B7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -4264,42 +4267,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -4311,14 +4314,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr"/>
-      <c r="C3" s="4" t="inlineStr"/>
-      <c r="D3" s="4" t="inlineStr"/>
-      <c r="E3" s="4" t="inlineStr"/>
-      <c r="F3" s="4" t="inlineStr"/>
-      <c r="G3" s="4" t="inlineStr"/>
-      <c r="H3" s="4" t="inlineStr"/>
-      <c r="I3" s="4" t="inlineStr"/>
+      <c r="B3" s="5" t="inlineStr"/>
+      <c r="C3" s="5" t="inlineStr"/>
+      <c r="D3" s="5" t="inlineStr"/>
+      <c r="E3" s="5" t="inlineStr"/>
+      <c r="F3" s="5" t="inlineStr"/>
+      <c r="G3" s="5" t="inlineStr"/>
+      <c r="H3" s="5" t="inlineStr"/>
+      <c r="I3" s="5" t="inlineStr"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
@@ -4326,14 +4329,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr"/>
+      <c r="B4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
@@ -4341,14 +4344,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="4" t="inlineStr"/>
-      <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="4" t="inlineStr"/>
+      <c r="B5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
@@ -4356,14 +4359,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
+      <c r="B6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
@@ -4371,38 +4374,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
-      <c r="G7" s="4" t="inlineStr"/>
-      <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="4" t="inlineStr"/>
+      <c r="B7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -4458,42 +4461,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -4505,14 +4508,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr"/>
-      <c r="C3" s="4" t="inlineStr"/>
-      <c r="D3" s="4" t="inlineStr"/>
-      <c r="E3" s="4" t="inlineStr"/>
-      <c r="F3" s="4" t="inlineStr"/>
-      <c r="G3" s="4" t="inlineStr"/>
-      <c r="H3" s="4" t="inlineStr"/>
-      <c r="I3" s="4" t="inlineStr"/>
+      <c r="B3" s="5" t="inlineStr"/>
+      <c r="C3" s="5" t="inlineStr"/>
+      <c r="D3" s="5" t="inlineStr"/>
+      <c r="E3" s="5" t="inlineStr"/>
+      <c r="F3" s="5" t="inlineStr"/>
+      <c r="G3" s="5" t="inlineStr"/>
+      <c r="H3" s="5" t="inlineStr"/>
+      <c r="I3" s="5" t="inlineStr"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
@@ -4520,14 +4523,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr"/>
+      <c r="B4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
@@ -4535,14 +4538,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="4" t="inlineStr"/>
-      <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="4" t="inlineStr"/>
+      <c r="B5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
@@ -4550,14 +4553,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
+      <c r="B6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
@@ -4565,38 +4568,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
-      <c r="G7" s="4" t="inlineStr"/>
-      <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="4" t="inlineStr"/>
+      <c r="B7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -4652,42 +4655,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -4699,14 +4702,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr"/>
-      <c r="C3" s="4" t="inlineStr"/>
-      <c r="D3" s="4" t="inlineStr"/>
-      <c r="E3" s="4" t="inlineStr"/>
-      <c r="F3" s="4" t="inlineStr"/>
-      <c r="G3" s="4" t="inlineStr"/>
-      <c r="H3" s="4" t="inlineStr"/>
-      <c r="I3" s="4" t="inlineStr"/>
+      <c r="B3" s="5" t="inlineStr"/>
+      <c r="C3" s="5" t="inlineStr"/>
+      <c r="D3" s="5" t="inlineStr"/>
+      <c r="E3" s="5" t="inlineStr"/>
+      <c r="F3" s="5" t="inlineStr"/>
+      <c r="G3" s="5" t="inlineStr"/>
+      <c r="H3" s="5" t="inlineStr"/>
+      <c r="I3" s="5" t="inlineStr"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
@@ -4714,14 +4717,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr"/>
+      <c r="B4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
@@ -4729,14 +4732,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="4" t="inlineStr"/>
-      <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="4" t="inlineStr"/>
+      <c r="B5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
@@ -4744,14 +4747,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
+      <c r="B6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
@@ -4759,38 +4762,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
-      <c r="G7" s="4" t="inlineStr"/>
-      <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="4" t="inlineStr"/>
+      <c r="B7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -4846,42 +4849,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -4893,14 +4896,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr"/>
-      <c r="C3" s="4" t="inlineStr"/>
-      <c r="D3" s="4" t="inlineStr"/>
-      <c r="E3" s="4" t="inlineStr"/>
-      <c r="F3" s="4" t="inlineStr"/>
-      <c r="G3" s="4" t="inlineStr"/>
-      <c r="H3" s="4" t="inlineStr"/>
-      <c r="I3" s="4" t="inlineStr"/>
+      <c r="B3" s="5" t="inlineStr"/>
+      <c r="C3" s="5" t="inlineStr"/>
+      <c r="D3" s="5" t="inlineStr"/>
+      <c r="E3" s="5" t="inlineStr"/>
+      <c r="F3" s="5" t="inlineStr"/>
+      <c r="G3" s="5" t="inlineStr"/>
+      <c r="H3" s="5" t="inlineStr"/>
+      <c r="I3" s="5" t="inlineStr"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
@@ -4908,14 +4911,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr"/>
+      <c r="B4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
@@ -4923,14 +4926,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="4" t="inlineStr"/>
-      <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="4" t="inlineStr"/>
+      <c r="B5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
@@ -4938,14 +4941,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
+      <c r="B6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
@@ -4953,38 +4956,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
-      <c r="G7" s="4" t="inlineStr"/>
-      <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="4" t="inlineStr"/>
+      <c r="B7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -5040,42 +5043,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -5087,14 +5090,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr"/>
-      <c r="C3" s="4" t="inlineStr"/>
-      <c r="D3" s="4" t="inlineStr"/>
-      <c r="E3" s="4" t="inlineStr"/>
-      <c r="F3" s="4" t="inlineStr"/>
-      <c r="G3" s="4" t="inlineStr"/>
-      <c r="H3" s="4" t="inlineStr"/>
-      <c r="I3" s="4" t="inlineStr"/>
+      <c r="B3" s="5" t="inlineStr"/>
+      <c r="C3" s="5" t="inlineStr"/>
+      <c r="D3" s="5" t="inlineStr"/>
+      <c r="E3" s="5" t="inlineStr"/>
+      <c r="F3" s="5" t="inlineStr"/>
+      <c r="G3" s="5" t="inlineStr"/>
+      <c r="H3" s="5" t="inlineStr"/>
+      <c r="I3" s="5" t="inlineStr"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
@@ -5102,14 +5105,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr"/>
+      <c r="B4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
@@ -5117,14 +5120,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="4" t="inlineStr"/>
-      <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="4" t="inlineStr"/>
+      <c r="B5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
@@ -5132,14 +5135,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
+      <c r="B6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
@@ -5147,38 +5150,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
-      <c r="G7" s="4" t="inlineStr"/>
-      <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="4" t="inlineStr"/>
+      <c r="B7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -5234,42 +5237,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -5281,14 +5284,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr"/>
-      <c r="C3" s="4" t="inlineStr"/>
-      <c r="D3" s="4" t="inlineStr"/>
-      <c r="E3" s="4" t="inlineStr"/>
-      <c r="F3" s="4" t="inlineStr"/>
-      <c r="G3" s="4" t="inlineStr"/>
-      <c r="H3" s="4" t="inlineStr"/>
-      <c r="I3" s="4" t="inlineStr"/>
+      <c r="B3" s="5" t="inlineStr"/>
+      <c r="C3" s="5" t="inlineStr"/>
+      <c r="D3" s="5" t="inlineStr"/>
+      <c r="E3" s="5" t="inlineStr"/>
+      <c r="F3" s="5" t="inlineStr"/>
+      <c r="G3" s="5" t="inlineStr"/>
+      <c r="H3" s="5" t="inlineStr"/>
+      <c r="I3" s="5" t="inlineStr"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
@@ -5296,14 +5299,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr"/>
+      <c r="B4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
@@ -5311,14 +5314,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="4" t="inlineStr"/>
-      <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="4" t="inlineStr"/>
+      <c r="B5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
@@ -5326,14 +5329,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
+      <c r="B6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
@@ -5341,38 +5344,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
-      <c r="G7" s="4" t="inlineStr"/>
-      <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="4" t="inlineStr"/>
+      <c r="B7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -5428,42 +5431,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -5475,14 +5478,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr"/>
-      <c r="C3" s="4" t="inlineStr"/>
-      <c r="D3" s="4" t="inlineStr"/>
-      <c r="E3" s="4" t="inlineStr"/>
-      <c r="F3" s="4" t="inlineStr"/>
-      <c r="G3" s="4" t="inlineStr"/>
-      <c r="H3" s="4" t="inlineStr"/>
-      <c r="I3" s="4" t="inlineStr"/>
+      <c r="B3" s="5" t="inlineStr"/>
+      <c r="C3" s="5" t="inlineStr"/>
+      <c r="D3" s="5" t="inlineStr"/>
+      <c r="E3" s="5" t="inlineStr"/>
+      <c r="F3" s="5" t="inlineStr"/>
+      <c r="G3" s="5" t="inlineStr"/>
+      <c r="H3" s="5" t="inlineStr"/>
+      <c r="I3" s="5" t="inlineStr"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
@@ -5490,14 +5493,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr"/>
+      <c r="B4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
@@ -5505,14 +5508,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="4" t="inlineStr"/>
-      <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="4" t="inlineStr"/>
+      <c r="B5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
@@ -5520,14 +5523,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
+      <c r="B6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
@@ -5535,38 +5538,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
-      <c r="G7" s="4" t="inlineStr"/>
-      <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="4" t="inlineStr"/>
+      <c r="B7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -5622,42 +5625,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -5669,14 +5672,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr"/>
-      <c r="C3" s="4" t="inlineStr"/>
-      <c r="D3" s="4" t="inlineStr"/>
-      <c r="E3" s="4" t="inlineStr"/>
-      <c r="F3" s="4" t="inlineStr"/>
-      <c r="G3" s="4" t="inlineStr"/>
-      <c r="H3" s="4" t="inlineStr"/>
-      <c r="I3" s="4" t="inlineStr"/>
+      <c r="B3" s="5" t="inlineStr"/>
+      <c r="C3" s="5" t="inlineStr"/>
+      <c r="D3" s="5" t="inlineStr"/>
+      <c r="E3" s="5" t="inlineStr"/>
+      <c r="F3" s="5" t="inlineStr"/>
+      <c r="G3" s="5" t="inlineStr"/>
+      <c r="H3" s="5" t="inlineStr"/>
+      <c r="I3" s="5" t="inlineStr"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
@@ -5684,14 +5687,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr"/>
+      <c r="B4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
@@ -5699,14 +5702,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="4" t="inlineStr"/>
-      <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="4" t="inlineStr"/>
+      <c r="B5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
@@ -5714,14 +5717,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
+      <c r="B6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
@@ -5729,38 +5732,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
-      <c r="G7" s="4" t="inlineStr"/>
-      <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="4" t="inlineStr"/>
+      <c r="B7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -5816,42 +5819,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -5863,14 +5866,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr"/>
-      <c r="C3" s="4" t="inlineStr"/>
-      <c r="D3" s="4" t="inlineStr"/>
-      <c r="E3" s="4" t="inlineStr"/>
-      <c r="F3" s="4" t="inlineStr"/>
-      <c r="G3" s="4" t="inlineStr"/>
-      <c r="H3" s="4" t="inlineStr"/>
-      <c r="I3" s="4" t="inlineStr"/>
+      <c r="B3" s="5" t="inlineStr"/>
+      <c r="C3" s="5" t="inlineStr"/>
+      <c r="D3" s="5" t="inlineStr"/>
+      <c r="E3" s="5" t="inlineStr"/>
+      <c r="F3" s="5" t="inlineStr"/>
+      <c r="G3" s="5" t="inlineStr"/>
+      <c r="H3" s="5" t="inlineStr"/>
+      <c r="I3" s="5" t="inlineStr"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
@@ -5878,14 +5881,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr"/>
+      <c r="B4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
@@ -5893,14 +5896,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="4" t="inlineStr"/>
-      <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="4" t="inlineStr"/>
+      <c r="B5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
@@ -5908,14 +5911,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
+      <c r="B6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
@@ -5923,38 +5926,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
-      <c r="G7" s="4" t="inlineStr"/>
-      <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="4" t="inlineStr"/>
+      <c r="B7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -6010,42 +6013,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -6057,14 +6060,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr"/>
-      <c r="C3" s="4" t="inlineStr"/>
-      <c r="D3" s="4" t="inlineStr"/>
-      <c r="E3" s="4" t="inlineStr"/>
-      <c r="F3" s="4" t="inlineStr"/>
-      <c r="G3" s="4" t="inlineStr"/>
-      <c r="H3" s="4" t="inlineStr"/>
-      <c r="I3" s="4" t="inlineStr"/>
+      <c r="B3" s="5" t="inlineStr"/>
+      <c r="C3" s="5" t="inlineStr"/>
+      <c r="D3" s="5" t="inlineStr"/>
+      <c r="E3" s="5" t="inlineStr"/>
+      <c r="F3" s="5" t="inlineStr"/>
+      <c r="G3" s="5" t="inlineStr"/>
+      <c r="H3" s="5" t="inlineStr"/>
+      <c r="I3" s="5" t="inlineStr"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
@@ -6072,14 +6075,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr"/>
+      <c r="B4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
@@ -6087,14 +6090,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="4" t="inlineStr"/>
-      <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="4" t="inlineStr"/>
+      <c r="B5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
@@ -6102,14 +6105,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
+      <c r="B6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
@@ -6117,38 +6120,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
-      <c r="G7" s="4" t="inlineStr"/>
-      <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="4" t="inlineStr"/>
+      <c r="B7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -6204,42 +6207,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -6251,14 +6254,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr"/>
-      <c r="C3" s="4" t="inlineStr"/>
-      <c r="D3" s="4" t="inlineStr"/>
-      <c r="E3" s="4" t="inlineStr"/>
-      <c r="F3" s="4" t="inlineStr"/>
-      <c r="G3" s="4" t="inlineStr"/>
-      <c r="H3" s="4" t="inlineStr"/>
-      <c r="I3" s="4" t="inlineStr"/>
+      <c r="B3" s="5" t="inlineStr"/>
+      <c r="C3" s="5" t="inlineStr"/>
+      <c r="D3" s="5" t="inlineStr"/>
+      <c r="E3" s="5" t="inlineStr"/>
+      <c r="F3" s="5" t="inlineStr"/>
+      <c r="G3" s="5" t="inlineStr"/>
+      <c r="H3" s="5" t="inlineStr"/>
+      <c r="I3" s="5" t="inlineStr"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
@@ -6266,14 +6269,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr"/>
+      <c r="B4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
@@ -6281,14 +6284,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="4" t="inlineStr"/>
-      <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="4" t="inlineStr"/>
+      <c r="B5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
@@ -6296,14 +6299,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
+      <c r="B6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
@@ -6311,38 +6314,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
-      <c r="G7" s="4" t="inlineStr"/>
-      <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="4" t="inlineStr"/>
+      <c r="B7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -6398,42 +6401,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -6445,14 +6448,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr"/>
-      <c r="C3" s="4" t="inlineStr"/>
-      <c r="D3" s="4" t="inlineStr"/>
-      <c r="E3" s="4" t="inlineStr"/>
-      <c r="F3" s="4" t="inlineStr"/>
-      <c r="G3" s="4" t="inlineStr"/>
-      <c r="H3" s="4" t="inlineStr"/>
-      <c r="I3" s="4" t="inlineStr"/>
+      <c r="B3" s="5" t="inlineStr"/>
+      <c r="C3" s="5" t="inlineStr"/>
+      <c r="D3" s="5" t="inlineStr"/>
+      <c r="E3" s="5" t="inlineStr"/>
+      <c r="F3" s="5" t="inlineStr"/>
+      <c r="G3" s="5" t="inlineStr"/>
+      <c r="H3" s="5" t="inlineStr"/>
+      <c r="I3" s="5" t="inlineStr"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
@@ -6460,14 +6463,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr"/>
+      <c r="B4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
@@ -6475,14 +6478,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="4" t="inlineStr"/>
-      <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="4" t="inlineStr"/>
+      <c r="B5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
@@ -6490,14 +6493,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
+      <c r="B6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
@@ -6505,38 +6508,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
-      <c r="G7" s="4" t="inlineStr"/>
-      <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="4" t="inlineStr"/>
+      <c r="B7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>
@@ -6592,42 +6595,42 @@
           <t>項目/月份</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>九月</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>十月</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>十一月</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>十二月</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>一月</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>二月</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>三月</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>四月</t>
         </is>
@@ -6639,14 +6642,14 @@
           <t>費用</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr"/>
-      <c r="C3" s="4" t="inlineStr"/>
-      <c r="D3" s="4" t="inlineStr"/>
-      <c r="E3" s="4" t="inlineStr"/>
-      <c r="F3" s="4" t="inlineStr"/>
-      <c r="G3" s="4" t="inlineStr"/>
-      <c r="H3" s="4" t="inlineStr"/>
-      <c r="I3" s="4" t="inlineStr"/>
+      <c r="B3" s="5" t="inlineStr"/>
+      <c r="C3" s="5" t="inlineStr"/>
+      <c r="D3" s="5" t="inlineStr"/>
+      <c r="E3" s="5" t="inlineStr"/>
+      <c r="F3" s="5" t="inlineStr"/>
+      <c r="G3" s="5" t="inlineStr"/>
+      <c r="H3" s="5" t="inlineStr"/>
+      <c r="I3" s="5" t="inlineStr"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
@@ -6654,14 +6657,14 @@
           <t>點心</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr"/>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr"/>
+      <c r="B4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
@@ -6669,14 +6672,14 @@
           <t>教材/冷氣</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="4" t="inlineStr"/>
-      <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="4" t="inlineStr"/>
+      <c r="B5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
@@ -6684,14 +6687,14 @@
           <t>共計</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
+      <c r="B6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="4" t="inlineStr">
@@ -6699,38 +6702,38 @@
           <t>收款人</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
-      <c r="G7" s="4" t="inlineStr"/>
-      <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="4" t="inlineStr"/>
+      <c r="B7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>1.請於拿到收費袋一週內繳費，以便學校行政事務</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>2.安親班收費至6:15，請家長於7:00前接小朋友，如當日有狀況，請洽蔣老師</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>3.若有任何問題請撥0909-413549、0926-231858 蔣老師</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>4.教材費每學期僅收一次，冷氣費則依當月使用狀況而定</t>
         </is>

--- a/收費單.xlsx
+++ b/收費單.xlsx
@@ -68,7 +68,7 @@
     </font>
     <font>
       <name val="標楷體"/>
-      <sz val="12"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="3">
